--- a/0_Documentation/Modbus/ModbusMod.xlsx
+++ b/0_Documentation/Modbus/ModbusMod.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="312">
   <si>
     <t>BIT15</t>
   </si>
@@ -223,9 +222,6 @@
     <t>GLINT0</t>
   </si>
   <si>
-    <t>RGBLED_BLON_BLOFF_GLINT_MODE</t>
-  </si>
-  <si>
     <t>MOD1</t>
   </si>
   <si>
@@ -427,9 +423,6 @@
     <t>TIME0</t>
   </si>
   <si>
-    <t>HUMIDITY_HUMIDITY</t>
-  </si>
-  <si>
     <t>HUM15</t>
   </si>
   <si>
@@ -709,9 +702,6 @@
     <t>samplebuffer[41]</t>
   </si>
   <si>
-    <t>PRESSURE_PRESSURE_KPA</t>
-  </si>
-  <si>
     <t>PRESSURE_PRESSURE_PA</t>
   </si>
   <si>
@@ -764,6 +754,213 @@
   </si>
   <si>
     <t>LUX0</t>
+  </si>
+  <si>
+    <t>ERR</t>
+  </si>
+  <si>
+    <t>HUM_ERR</t>
+  </si>
+  <si>
+    <t>PIR_ERR</t>
+  </si>
+  <si>
+    <t>PRESS_ERR</t>
+  </si>
+  <si>
+    <t>LUM_ERR</t>
+  </si>
+  <si>
+    <t>RGBLED_CONTROL</t>
+  </si>
+  <si>
+    <t>GAS_TRESHOLD</t>
+  </si>
+  <si>
+    <t>ALARM</t>
+  </si>
+  <si>
+    <t>TH11</t>
+  </si>
+  <si>
+    <t>TH10</t>
+  </si>
+  <si>
+    <t>TH9</t>
+  </si>
+  <si>
+    <t>TH8</t>
+  </si>
+  <si>
+    <t>TH7</t>
+  </si>
+  <si>
+    <t>TH6</t>
+  </si>
+  <si>
+    <t>TH5</t>
+  </si>
+  <si>
+    <t>TH4</t>
+  </si>
+  <si>
+    <t>TH3</t>
+  </si>
+  <si>
+    <t>TH2</t>
+  </si>
+  <si>
+    <t>TH1</t>
+  </si>
+  <si>
+    <t>TH0</t>
+  </si>
+  <si>
+    <t>GAS11</t>
+  </si>
+  <si>
+    <t>GAS10</t>
+  </si>
+  <si>
+    <t>GAS9</t>
+  </si>
+  <si>
+    <t>GAS8</t>
+  </si>
+  <si>
+    <t>GAS7</t>
+  </si>
+  <si>
+    <t>GAS6</t>
+  </si>
+  <si>
+    <t>GAS5</t>
+  </si>
+  <si>
+    <t>GAS4</t>
+  </si>
+  <si>
+    <t>GAS3</t>
+  </si>
+  <si>
+    <t>GAS2</t>
+  </si>
+  <si>
+    <t>GAS1</t>
+  </si>
+  <si>
+    <t>GAS0</t>
+  </si>
+  <si>
+    <t>GAS_ERR</t>
+  </si>
+  <si>
+    <t>SOUND_ERR</t>
+  </si>
+  <si>
+    <t>HUMIDITY</t>
+  </si>
+  <si>
+    <t>PRESSURE_KPA</t>
+  </si>
+  <si>
+    <t>GAS_MV</t>
+  </si>
+  <si>
+    <t>TEMP_FRAC</t>
+  </si>
+  <si>
+    <t>FRAC13</t>
+  </si>
+  <si>
+    <t>FRAC12</t>
+  </si>
+  <si>
+    <t>FRAC11</t>
+  </si>
+  <si>
+    <t>FRAC10</t>
+  </si>
+  <si>
+    <t>FRAC9</t>
+  </si>
+  <si>
+    <t>FRAC8</t>
+  </si>
+  <si>
+    <t>FRAC7</t>
+  </si>
+  <si>
+    <t>FRAC6</t>
+  </si>
+  <si>
+    <t>FRAC5</t>
+  </si>
+  <si>
+    <t>FRAC4</t>
+  </si>
+  <si>
+    <t>FRAC3</t>
+  </si>
+  <si>
+    <t>FRAC2</t>
+  </si>
+  <si>
+    <t>FRAC1</t>
+  </si>
+  <si>
+    <t>FRAC0</t>
+  </si>
+  <si>
+    <t>TEMP_INT</t>
+  </si>
+  <si>
+    <t>INT15</t>
+  </si>
+  <si>
+    <t>INT14</t>
+  </si>
+  <si>
+    <t>INT13</t>
+  </si>
+  <si>
+    <t>INT12</t>
+  </si>
+  <si>
+    <t>INT11</t>
+  </si>
+  <si>
+    <t>INT10</t>
+  </si>
+  <si>
+    <t>INT9</t>
+  </si>
+  <si>
+    <t>INT8</t>
+  </si>
+  <si>
+    <t>INT7</t>
+  </si>
+  <si>
+    <t>INT6</t>
+  </si>
+  <si>
+    <t>INT5</t>
+  </si>
+  <si>
+    <t>INT4</t>
+  </si>
+  <si>
+    <t>INT3</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>INT0</t>
   </si>
 </sst>
 </file>
@@ -807,9 +1004,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1093,13 +1291,23 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1163,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -1175,43 +1383,43 @@
         <v>45</v>
       </c>
       <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
         <v>82</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>83</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>84</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>85</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>86</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>87</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>88</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>89</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>90</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>91</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>93</v>
-      </c>
-      <c r="R2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1221,6 +1429,27 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
+      <c r="L3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M3" t="s">
+        <v>275</v>
+      </c>
+      <c r="N3" t="s">
+        <v>247</v>
+      </c>
+      <c r="O3" t="s">
+        <v>246</v>
+      </c>
+      <c r="P3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>244</v>
+      </c>
+      <c r="R3" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1339,10 +1568,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
@@ -1357,7 +1586,7 @@
         <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
@@ -1384,10 +1613,10 @@
         <v>64</v>
       </c>
       <c r="Q6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" t="s">
         <v>66</v>
-      </c>
-      <c r="R6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1395,43 +1624,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>77</v>
       </c>
-      <c r="K7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>78</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>79</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
       </c>
       <c r="O7" t="s">
         <v>45</v>
@@ -1440,10 +1669,10 @@
         <v>45</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1451,55 +1680,55 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>99</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>100</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>101</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>102</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>103</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>104</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>105</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>106</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>107</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>108</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>109</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>110</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>111</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>112</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>114</v>
-      </c>
-      <c r="R8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1507,55 +1736,55 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
         <v>116</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>117</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>118</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>119</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>120</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>121</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>122</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>123</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>124</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>125</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>126</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>127</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>128</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>129</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>130</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>131</v>
-      </c>
-      <c r="R9" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1563,55 +1792,55 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
         <v>133</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>134</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>135</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>136</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>137</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>138</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>139</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>140</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>141</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>142</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>143</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>144</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>145</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>146</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>147</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>148</v>
-      </c>
-      <c r="R10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1619,55 +1848,55 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
         <v>150</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>151</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>152</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>153</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>154</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>155</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>156</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>157</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>158</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>159</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>160</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>161</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>162</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>163</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>164</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>165</v>
-      </c>
-      <c r="R11" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1675,55 +1904,55 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" t="s">
         <v>167</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>168</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>169</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>170</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>171</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>172</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>173</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>174</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>175</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>176</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>177</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>178</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>179</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>180</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>181</v>
-      </c>
-      <c r="R12" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1731,55 +1960,55 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
         <v>167</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>168</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>169</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>170</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>171</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>172</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>173</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>174</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>175</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>176</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>177</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>178</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>179</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>180</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>181</v>
-      </c>
-      <c r="R13" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1787,55 +2016,55 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" t="s">
         <v>151</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>152</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>153</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>154</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>155</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>156</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>157</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>158</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>159</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>160</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>161</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>162</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>163</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>164</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>165</v>
-      </c>
-      <c r="R14" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1843,123 +2072,327 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" t="s">
         <v>229</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>230</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
         <v>231</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>232</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>233</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>234</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" t="s">
         <v>235</v>
       </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>236</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="s">
         <v>237</v>
       </c>
-      <c r="K15" t="s">
+      <c r="N15" t="s">
         <v>238</v>
       </c>
-      <c r="L15" t="s">
+      <c r="O15" t="s">
         <v>239</v>
       </c>
-      <c r="M15" t="s">
+      <c r="P15" t="s">
         <v>240</v>
       </c>
-      <c r="N15" t="s">
+      <c r="Q15" t="s">
         <v>241</v>
       </c>
-      <c r="O15" t="s">
+      <c r="R15" t="s">
         <v>242</v>
-      </c>
-      <c r="P15" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>244</v>
-      </c>
-      <c r="R15" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J16" t="s">
+        <v>254</v>
+      </c>
+      <c r="K16" t="s">
+        <v>255</v>
+      </c>
+      <c r="L16" t="s">
+        <v>256</v>
+      </c>
+      <c r="M16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N16" t="s">
+        <v>258</v>
+      </c>
+      <c r="O16" t="s">
+        <v>259</v>
+      </c>
+      <c r="P16" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>261</v>
+      </c>
+      <c r="R16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17" t="s">
+        <v>264</v>
+      </c>
+      <c r="I17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J17" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" t="s">
+        <v>268</v>
+      </c>
+      <c r="M17" t="s">
+        <v>269</v>
+      </c>
+      <c r="N17" t="s">
+        <v>270</v>
+      </c>
+      <c r="O17" t="s">
+        <v>271</v>
+      </c>
+      <c r="P17" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>273</v>
+      </c>
+      <c r="R17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>281</v>
+      </c>
+      <c r="F18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" t="s">
+        <v>283</v>
+      </c>
+      <c r="H18" t="s">
+        <v>284</v>
+      </c>
+      <c r="I18" t="s">
+        <v>285</v>
+      </c>
+      <c r="J18" t="s">
+        <v>286</v>
+      </c>
+      <c r="K18" t="s">
+        <v>287</v>
+      </c>
+      <c r="L18" t="s">
+        <v>288</v>
+      </c>
+      <c r="M18" t="s">
+        <v>289</v>
+      </c>
+      <c r="N18" t="s">
+        <v>290</v>
+      </c>
+      <c r="O18" t="s">
+        <v>291</v>
+      </c>
+      <c r="P18" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>293</v>
+      </c>
+      <c r="R18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J19" t="s">
+        <v>303</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N19" t="s">
+        <v>307</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="P19" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="R19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1975,65 +2408,65 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E42"/>
+      <selection sqref="A1:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C1">
-        <v>214763</v>
+        <v>372231</v>
       </c>
       <c r="E1">
         <f>C2-C1</f>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2">
-        <v>214787</v>
+        <v>372253</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E42" si="0">C3-C2</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3">
-        <v>214799</v>
+        <v>372264</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4">
-        <v>214811</v>
+        <v>372275</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -2042,148 +2475,148 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5">
-        <v>214823</v>
+        <v>372287</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6">
-        <v>214835</v>
+        <v>372297</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7">
-        <v>214847</v>
+        <v>372308</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8">
-        <v>214859</v>
+        <v>372319</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9">
-        <v>214871</v>
+        <v>372330</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10">
-        <v>214890</v>
+        <v>372348</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11">
-        <v>214911</v>
+        <v>372368</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C12">
-        <v>214930</v>
+        <v>372386</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C13">
-        <v>214950</v>
+        <v>372397</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C14">
-        <v>214962</v>
+        <v>372408</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -2192,118 +2625,118 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C15">
-        <v>214981</v>
+        <v>372427</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C16">
-        <v>214993</v>
+        <v>372437</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C17">
-        <v>215012</v>
+        <v>372455</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C18">
-        <v>215024</v>
+        <v>372466</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C19">
-        <v>215038</v>
+        <v>372479</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C20">
-        <v>215050</v>
+        <v>372490</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C21">
-        <v>215062</v>
+        <v>372501</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C22">
-        <v>215074</v>
+        <v>372512</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
@@ -2312,28 +2745,28 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C23">
-        <v>215086</v>
+        <v>372524</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C24">
-        <v>215099</v>
+        <v>372534</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -2342,272 +2775,272 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C25">
-        <v>215110</v>
+        <v>372545</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C26">
-        <v>215129</v>
+        <v>372563</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27">
-        <v>215144</v>
+        <v>372576</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C28">
-        <v>215156</v>
+        <v>372587</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C29">
-        <v>215168</v>
+        <v>372598</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30">
-        <v>215187</v>
+        <v>372609</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C31">
-        <v>215199</v>
+        <v>372629</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C32">
-        <v>215211</v>
+        <v>372646</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C33">
-        <v>215223</v>
+        <v>372664</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C34">
-        <v>215242</v>
+        <v>372675</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C35">
-        <v>215263</v>
+        <v>372694</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C36">
-        <v>215282</v>
+        <v>372714</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C37">
-        <v>215301</v>
+        <v>372724</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C38">
-        <v>215320</v>
+        <v>372742</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C39">
-        <v>215340</v>
+        <v>372760</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C40">
-        <v>215359</v>
+        <v>372771</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C41">
-        <v>215371</v>
+        <v>372789</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C42">
-        <v>215390</v>
+        <v>372800</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>-215390</v>
+        <v>-372800</v>
       </c>
     </row>
   </sheetData>

--- a/0_Documentation/Modbus/ModbusMod.xlsx
+++ b/0_Documentation/Modbus/ModbusMod.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="360">
   <si>
     <t>BIT15</t>
   </si>
@@ -961,12 +961,156 @@
   </si>
   <si>
     <t>INT0</t>
+  </si>
+  <si>
+    <t>SOUND_TRESHOLD</t>
+  </si>
+  <si>
+    <t>SOUND_TRESHOLDTIME</t>
+  </si>
+  <si>
+    <t>SOUND_MV</t>
+  </si>
+  <si>
+    <t>SOUND_CLAPCOUNT</t>
+  </si>
+  <si>
+    <t>THTIM_15</t>
+  </si>
+  <si>
+    <t>THTIM_14</t>
+  </si>
+  <si>
+    <t>THTIM_13</t>
+  </si>
+  <si>
+    <t>THTIM_12</t>
+  </si>
+  <si>
+    <t>THTIM_11</t>
+  </si>
+  <si>
+    <t>THTIM_10</t>
+  </si>
+  <si>
+    <t>THTIM_9</t>
+  </si>
+  <si>
+    <t>THTIM_8</t>
+  </si>
+  <si>
+    <t>THTIM_7</t>
+  </si>
+  <si>
+    <t>THTIM_6</t>
+  </si>
+  <si>
+    <t>THTIM_5</t>
+  </si>
+  <si>
+    <t>THTIM_4</t>
+  </si>
+  <si>
+    <t>THTIM_3</t>
+  </si>
+  <si>
+    <t>THTIM_2</t>
+  </si>
+  <si>
+    <t>THTIM_1</t>
+  </si>
+  <si>
+    <t>THTIM_0</t>
+  </si>
+  <si>
+    <t>SOUND11</t>
+  </si>
+  <si>
+    <t>SOUND10</t>
+  </si>
+  <si>
+    <t>SOUND9</t>
+  </si>
+  <si>
+    <t>SOUND8</t>
+  </si>
+  <si>
+    <t>SOUND7</t>
+  </si>
+  <si>
+    <t>SOUND6</t>
+  </si>
+  <si>
+    <t>SOUND5</t>
+  </si>
+  <si>
+    <t>SOUND4</t>
+  </si>
+  <si>
+    <t>SOUND3</t>
+  </si>
+  <si>
+    <t>SOUND2</t>
+  </si>
+  <si>
+    <t>SOUND1</t>
+  </si>
+  <si>
+    <t>SOUND0</t>
+  </si>
+  <si>
+    <t>CLCNT15</t>
+  </si>
+  <si>
+    <t>CLCNT14</t>
+  </si>
+  <si>
+    <t>CLCNT13</t>
+  </si>
+  <si>
+    <t>CLCNT12</t>
+  </si>
+  <si>
+    <t>CLCNT11</t>
+  </si>
+  <si>
+    <t>CLCNT10</t>
+  </si>
+  <si>
+    <t>CLCNT9</t>
+  </si>
+  <si>
+    <t>CLCNT8</t>
+  </si>
+  <si>
+    <t>CLCNT7</t>
+  </si>
+  <si>
+    <t>CLCNT6</t>
+  </si>
+  <si>
+    <t>CLCNT5</t>
+  </si>
+  <si>
+    <t>CLCNT4</t>
+  </si>
+  <si>
+    <t>CLCNT3</t>
+  </si>
+  <si>
+    <t>CLCNT2</t>
+  </si>
+  <si>
+    <t>CLCNT1</t>
+  </si>
+  <si>
+    <t>CLCNT0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1101,6 +1245,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1136,6 +1297,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1291,23 +1469,23 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1"/>
+    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2351,20 +2529,224 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>251</v>
+      </c>
+      <c r="H20" t="s">
+        <v>252</v>
+      </c>
+      <c r="I20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J20" t="s">
+        <v>254</v>
+      </c>
+      <c r="K20" t="s">
+        <v>255</v>
+      </c>
+      <c r="L20" t="s">
+        <v>256</v>
+      </c>
+      <c r="M20" t="s">
+        <v>257</v>
+      </c>
+      <c r="N20" t="s">
+        <v>258</v>
+      </c>
+      <c r="O20" t="s">
+        <v>259</v>
+      </c>
+      <c r="P20" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>261</v>
+      </c>
+      <c r="R20" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" t="s">
+        <v>318</v>
+      </c>
+      <c r="F21" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" t="s">
+        <v>320</v>
+      </c>
+      <c r="H21" t="s">
+        <v>321</v>
+      </c>
+      <c r="I21" t="s">
+        <v>322</v>
+      </c>
+      <c r="J21" t="s">
+        <v>323</v>
+      </c>
+      <c r="K21" t="s">
+        <v>324</v>
+      </c>
+      <c r="L21" t="s">
+        <v>325</v>
+      </c>
+      <c r="M21" t="s">
+        <v>326</v>
+      </c>
+      <c r="N21" t="s">
+        <v>327</v>
+      </c>
+      <c r="O21" t="s">
+        <v>328</v>
+      </c>
+      <c r="P21" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>330</v>
+      </c>
+      <c r="R21" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>332</v>
+      </c>
+      <c r="H22" t="s">
+        <v>333</v>
+      </c>
+      <c r="I22" t="s">
+        <v>334</v>
+      </c>
+      <c r="J22" t="s">
+        <v>335</v>
+      </c>
+      <c r="K22" t="s">
+        <v>336</v>
+      </c>
+      <c r="L22" t="s">
+        <v>337</v>
+      </c>
+      <c r="M22" t="s">
+        <v>338</v>
+      </c>
+      <c r="N22" t="s">
+        <v>339</v>
+      </c>
+      <c r="O22" t="s">
+        <v>340</v>
+      </c>
+      <c r="P22" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>342</v>
+      </c>
+      <c r="R22" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D23" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F23" t="s">
+        <v>347</v>
+      </c>
+      <c r="G23" t="s">
+        <v>348</v>
+      </c>
+      <c r="H23" t="s">
+        <v>349</v>
+      </c>
+      <c r="I23" t="s">
+        <v>350</v>
+      </c>
+      <c r="J23" t="s">
+        <v>351</v>
+      </c>
+      <c r="K23" t="s">
+        <v>352</v>
+      </c>
+      <c r="L23" t="s">
+        <v>353</v>
+      </c>
+      <c r="M23" t="s">
+        <v>354</v>
+      </c>
+      <c r="N23" t="s">
+        <v>355</v>
+      </c>
+      <c r="O23" t="s">
+        <v>356</v>
+      </c>
+      <c r="P23" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>358</v>
+      </c>
+      <c r="R23" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">

--- a/0_Documentation/Modbus/ModbusMod.xlsx
+++ b/0_Documentation/Modbus/ModbusMod.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="359">
   <si>
     <t>BIT15</t>
   </si>
@@ -972,9 +972,6 @@
     <t>SOUND_MV</t>
   </si>
   <si>
-    <t>SOUND_CLAPCOUNT</t>
-  </si>
-  <si>
     <t>THTIM_15</t>
   </si>
   <si>
@@ -1059,52 +1056,52 @@
     <t>SOUND0</t>
   </si>
   <si>
-    <t>CLCNT15</t>
-  </si>
-  <si>
-    <t>CLCNT14</t>
-  </si>
-  <si>
-    <t>CLCNT13</t>
-  </si>
-  <si>
-    <t>CLCNT12</t>
-  </si>
-  <si>
-    <t>CLCNT11</t>
-  </si>
-  <si>
-    <t>CLCNT10</t>
-  </si>
-  <si>
-    <t>CLCNT9</t>
-  </si>
-  <si>
-    <t>CLCNT8</t>
-  </si>
-  <si>
-    <t>CLCNT7</t>
-  </si>
-  <si>
-    <t>CLCNT6</t>
-  </si>
-  <si>
-    <t>CLCNT5</t>
-  </si>
-  <si>
-    <t>CLCNT4</t>
-  </si>
-  <si>
-    <t>CLCNT3</t>
-  </si>
-  <si>
-    <t>CLCNT2</t>
-  </si>
-  <si>
-    <t>CLCNT1</t>
-  </si>
-  <si>
-    <t>CLCNT0</t>
+    <t>SOUNDPERC0</t>
+  </si>
+  <si>
+    <t>SOUNDPERC1</t>
+  </si>
+  <si>
+    <t>SOUNDPERC6</t>
+  </si>
+  <si>
+    <t>SOUNDPERC5</t>
+  </si>
+  <si>
+    <t>SOUNDPERC4</t>
+  </si>
+  <si>
+    <t>SOUNDPERC3</t>
+  </si>
+  <si>
+    <t>SOUNDPERC2</t>
+  </si>
+  <si>
+    <t>PIRCOUNT7</t>
+  </si>
+  <si>
+    <t>PIRCOUNT6</t>
+  </si>
+  <si>
+    <t>PIRCOUNT5</t>
+  </si>
+  <si>
+    <t>PIRCOUNT4</t>
+  </si>
+  <si>
+    <t>PIRCOUNT3</t>
+  </si>
+  <si>
+    <t>PIRCOUNT2</t>
+  </si>
+  <si>
+    <t>PIRCOUNT1</t>
+  </si>
+  <si>
+    <t>PIRCOUNT0</t>
+  </si>
+  <si>
+    <t>FAST_PIRCOUNT_SOUNDPERCENT</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1466,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,6 +1604,33 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
       <c r="L3" t="s">
         <v>276</v>
       </c>
@@ -2589,52 +2613,52 @@
         <v>313</v>
       </c>
       <c r="C21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" t="s">
         <v>316</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>317</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>318</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>319</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>320</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>321</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>322</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>323</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>324</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>325</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>326</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>327</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>328</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>329</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>330</v>
-      </c>
-      <c r="R21" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2657,40 +2681,40 @@
         <v>81</v>
       </c>
       <c r="G22" t="s">
+        <v>331</v>
+      </c>
+      <c r="H22" t="s">
         <v>332</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>333</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>334</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>335</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>336</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>337</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>338</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>339</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>340</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>341</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>342</v>
-      </c>
-      <c r="R22" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2698,55 +2722,55 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="C23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" t="s">
+        <v>352</v>
+      </c>
+      <c r="F23" t="s">
+        <v>353</v>
+      </c>
+      <c r="G23" t="s">
+        <v>354</v>
+      </c>
+      <c r="H23" t="s">
+        <v>355</v>
+      </c>
+      <c r="I23" t="s">
+        <v>356</v>
+      </c>
+      <c r="J23" t="s">
+        <v>357</v>
+      </c>
+      <c r="K23" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" t="s">
+        <v>345</v>
+      </c>
+      <c r="M23" t="s">
+        <v>346</v>
+      </c>
+      <c r="N23" t="s">
+        <v>347</v>
+      </c>
+      <c r="O23" t="s">
+        <v>348</v>
+      </c>
+      <c r="P23" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q23" t="s">
         <v>344</v>
       </c>
-      <c r="D23" t="s">
-        <v>345</v>
-      </c>
-      <c r="E23" t="s">
-        <v>346</v>
-      </c>
-      <c r="F23" t="s">
-        <v>347</v>
-      </c>
-      <c r="G23" t="s">
-        <v>348</v>
-      </c>
-      <c r="H23" t="s">
-        <v>349</v>
-      </c>
-      <c r="I23" t="s">
-        <v>350</v>
-      </c>
-      <c r="J23" t="s">
-        <v>351</v>
-      </c>
-      <c r="K23" t="s">
-        <v>352</v>
-      </c>
-      <c r="L23" t="s">
-        <v>353</v>
-      </c>
-      <c r="M23" t="s">
-        <v>354</v>
-      </c>
-      <c r="N23" t="s">
-        <v>355</v>
-      </c>
-      <c r="O23" t="s">
-        <v>356</v>
-      </c>
-      <c r="P23" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>358</v>
-      </c>
       <c r="R23" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
